--- a/doc5/ue-watchdog.xlsx
+++ b/doc5/ue-watchdog.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E43003-17D7-4BEB-93E5-B4BD6AB635C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDF4BFB-5F20-4813-8B59-779BAF8F969E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="160">
   <si>
     <t>UE开发出现死循环之类的时候，很难在真机上直接定位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +39,477 @@
   <si>
     <t>所以，需要专门用于各种检测的看门狗：WatchDog</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FWatchDog;</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>UCLASS()</t>
+  </si>
+  <si>
+    <t>class UE4_TEST001_API UMyGameInstance : public UGameInstance</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>GENERATED_BODY()</t>
+  </si>
+  <si>
+    <t>public:</t>
+  </si>
+  <si>
+    <t>FDelegateHandle TickDelegateHandle;</t>
+  </si>
+  <si>
+    <t>FDelegateHandle PauseHandle;</t>
+  </si>
+  <si>
+    <t>FDelegateHandle ResumeHandle;</t>
+  </si>
+  <si>
+    <t>FThreadSafeCounter InPauseState;</t>
+  </si>
+  <si>
+    <t>FThreadSafeCounter InLoadMapState;</t>
+  </si>
+  <si>
+    <t>volatile int64 LastTickTime = 0;</t>
+  </si>
+  <si>
+    <t>FWatchDog* WatchDogThread = nullptr;</t>
+  </si>
+  <si>
+    <t>/** virtual function to allow custom GameInstances an opportunity to set up what it needs */</t>
+  </si>
+  <si>
+    <t>virtual void Init() override;</t>
+  </si>
+  <si>
+    <t>// tick</t>
+  </si>
+  <si>
+    <t>virtual bool Tick(float DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>/** virtual function to allow custom GameInstances an opportunity to do cleanup when shutting down */</t>
+  </si>
+  <si>
+    <t>virtual void Shutdown() override;</t>
+  </si>
+  <si>
+    <t>virtual void FinishDestroy() override;</t>
+  </si>
+  <si>
+    <t>private:</t>
+  </si>
+  <si>
+    <t>void HandlePreLoadMap(const FString&amp; MapName);</t>
+  </si>
+  <si>
+    <t>void HandlePostLoadMapWithWorld(UWorld* NewWorld);</t>
+  </si>
+  <si>
+    <t>/** Callback for when the application resumed in the foreground. */</t>
+  </si>
+  <si>
+    <t>void HandleApplicationHasEnteredForeground();</t>
+  </si>
+  <si>
+    <t>/** Callback for when the application is being paused in the background. */</t>
+  </si>
+  <si>
+    <t>void HandleApplicationWillEnterBackground();</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>#include "Containers/Ticker.h"</t>
+  </si>
+  <si>
+    <t>#include "GenericPlatform/GenericPlatformStackWalk.h"</t>
+  </si>
+  <si>
+    <t>#if PLATFORM_ANDROID || PLATFORM_IOS</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;unistd.h&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;pthread.h&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;signal.h&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;errno.h&gt;</t>
+  </si>
+  <si>
+    <t>#define threadhandle pthread_t</t>
+  </si>
+  <si>
+    <t>#else</t>
+  </si>
+  <si>
+    <t>#define threadhandle int32</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>static void PrintCallStack()</t>
+  </si>
+  <si>
+    <t>ANSICHAR* StackTrace;</t>
+  </si>
+  <si>
+    <t>const SIZE_T StackTaceSize = 65535;</t>
+  </si>
+  <si>
+    <t>StackTrace = (ANSICHAR*)FMemory::Malloc(StackTaceSize);</t>
+  </si>
+  <si>
+    <t>StackTrace[0] = 0;</t>
+  </si>
+  <si>
+    <t>FPlatformStackWalk::StackWalkAndDump(StackTrace, StackTaceSize, 0);</t>
+  </si>
+  <si>
+    <t>FString StackTraceText(StackTrace);</t>
+  </si>
+  <si>
+    <t>TArray&lt;FString&gt; StackLines;</t>
+  </si>
+  <si>
+    <t>StackTraceText.ParseIntoArrayLines(StackLines);</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("-----------Call Stack---------------------"));</t>
+  </si>
+  <si>
+    <t>for (FString&amp; StackLine : StackLines)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("\t %s"), *StackLine);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>static UMyGameInstance* sUMyGameInstance = nullptr;</t>
+  </si>
+  <si>
+    <t>// 看门狗</t>
+  </si>
+  <si>
+    <t>class FWatchDog : public FRunnable</t>
+  </si>
+  <si>
+    <t>/** Thread to run the worker FRunnable on. Serializes the ring buffer to disk. */</t>
+  </si>
+  <si>
+    <t>volatile FRunnableThread* Thread;</t>
+  </si>
+  <si>
+    <t>/** Stops this thread */</t>
+  </si>
+  <si>
+    <t>FThreadSafeCounter StopTaskCounter;</t>
+  </si>
+  <si>
+    <t>/** Next Log Call Stack Time*/</t>
+  </si>
+  <si>
+    <t>int64 NextLogCallStackTime = 0;</t>
+  </si>
+  <si>
+    <t>/** Log Call Stack Diff Time*/</t>
+  </si>
+  <si>
+    <t>int64 LogCallStackDiffTime = 8;</t>
+  </si>
+  <si>
+    <t>/** Max Diff Time To Crash*/</t>
+  </si>
+  <si>
+    <t>int64 MaxDiffTimeToCrash = 30;</t>
+  </si>
+  <si>
+    <t>/** Main Thread Handle*/</t>
+  </si>
+  <si>
+    <t>threadhandle MainThreadHandle;</t>
+  </si>
+  <si>
+    <t>FWatchDog(threadhandle mainthreadhandle) : MainThreadHandle(mainthreadhandle)</t>
+  </si>
+  <si>
+    <t>FPlatformAtomics::InterlockedExchangePtr((void**)&amp;Thread, FRunnableThread::Create(this, TEXT("WatchDog"), 0, TPri_BelowNormal));</t>
+  </si>
+  <si>
+    <t>virtual ~FWatchDog()</t>
+  </si>
+  <si>
+    <t>delete Thread;</t>
+  </si>
+  <si>
+    <t>Thread = nullptr;</t>
+  </si>
+  <si>
+    <t>//~ Begin FRunnable Interface.</t>
+  </si>
+  <si>
+    <t>virtual bool Init()</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <t>virtual uint32 Run()</t>
+  </si>
+  <si>
+    <t>while (StopTaskCounter.GetValue() == 0)</t>
+  </si>
+  <si>
+    <t>if (!sUMyGameInstance)</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>if (sUMyGameInstance-&gt;InLoadMapState.GetValue() == 0 &amp;&amp; sUMyGameInstance-&gt;InPauseState.GetValue() == 0)</t>
+  </si>
+  <si>
+    <t>int64 CurrentRealTime = FPlatformTime::Seconds();</t>
+  </si>
+  <si>
+    <t>int64 LastTickTime = FPlatformAtomics::AtomicRead(&amp;sUMyGameInstance-&gt;LastTickTime);</t>
+  </si>
+  <si>
+    <t>int64 diff = CurrentRealTime - LastTickTime;</t>
+  </si>
+  <si>
+    <t>if (CurrentRealTime &gt; NextLogCallStackTime &amp;&amp; diff != 0 &amp;&amp; diff % LogCallStackDiffTime == 0)</t>
+  </si>
+  <si>
+    <t>NextLogCallStackTime = CurrentRealTime + 1;</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("FWatchDog::MainThread Maybe DeadLoop"));</t>
+  </si>
+  <si>
+    <t>pthread_kill(MainThreadHandle, SIGALRM);</t>
+  </si>
+  <si>
+    <t>if (diff &gt;= MaxDiffTimeToCrash)</t>
+  </si>
+  <si>
+    <t>int* p[2] = { nullptr, nullptr };</t>
+  </si>
+  <si>
+    <t>*p[0] = 888;</t>
+  </si>
+  <si>
+    <t>*p[1] = 999;</t>
+  </si>
+  <si>
+    <t>FPlatformProcess::SleepNoStats(0.5f);</t>
+  </si>
+  <si>
+    <t>return 0;</t>
+  </si>
+  <si>
+    <t>virtual void Stop()</t>
+  </si>
+  <si>
+    <t>StopTaskCounter.Increment();</t>
+  </si>
+  <si>
+    <t>//~ End FRunnable Interface</t>
+  </si>
+  <si>
+    <t>static void OnMainThreadSignalHandler(int signo)</t>
+  </si>
+  <si>
+    <t>// get main thread call stack</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("FWatchDog::MainThread OnMainThreadSignalHandler Begin"));</t>
+  </si>
+  <si>
+    <t>PrintCallStack();</t>
+  </si>
+  <si>
+    <t>void UMyGameInstance::Init()</t>
+  </si>
+  <si>
+    <t>Super::Init();</t>
+  </si>
+  <si>
+    <t>TickDelegateHandle = FTicker::GetCoreTicker().AddTicker(FTickerDelegate::CreateUObject(this, &amp;UMyGameInstance::Tick));</t>
+  </si>
+  <si>
+    <t>ResumeHandle = FCoreDelegates::ApplicationHasEnteredForegroundDelegate.AddUObject(this, &amp;UMyGameInstance::HandleApplicationHasEnteredForeground);</t>
+  </si>
+  <si>
+    <t>PauseHandle = FCoreDelegates::ApplicationWillEnterBackgroundDelegate.AddUObject(this, &amp;UMyGameInstance::HandleApplicationWillEnterBackground);</t>
+  </si>
+  <si>
+    <t>FCoreUObjectDelegates::PreLoadMap.AddUObject(this, &amp;UMyGameInstance::HandlePreLoadMap);</t>
+  </si>
+  <si>
+    <t>FCoreUObjectDelegates::PostLoadMapWithWorld.AddUObject(this, &amp;UMyGameInstance::HandlePostLoadMapWithWorld);</t>
+  </si>
+  <si>
+    <t>//OnTravelFailure().AddUObject(this, &amp;UEngine::HandleTravelFailure);</t>
+  </si>
+  <si>
+    <t>//OnNetworkFailure().AddUObject(this, &amp;UEngine::HandleNetworkFailure);</t>
+  </si>
+  <si>
+    <t>//OnNetworkLagStateChanged().AddUObject(this, &amp;UEngine::HandleNetworkLagStateChanged);</t>
+  </si>
+  <si>
+    <t>FPlatformAtomics::InterlockedExchange(&amp;LastTickTime, (int64)FPlatformTime::Seconds());</t>
+  </si>
+  <si>
+    <t>struct sigaction  actions;</t>
+  </si>
+  <si>
+    <t>memset(&amp;actions, 0, sizeof(actions));</t>
+  </si>
+  <si>
+    <t>sigemptyset(&amp;actions.sa_mask);</t>
+  </si>
+  <si>
+    <t>actions.sa_flags = 0;</t>
+  </si>
+  <si>
+    <t>actions.sa_handler = FWatchDog::OnMainThreadSignalHandler;</t>
+  </si>
+  <si>
+    <t>sigaction(SIGALRM, &amp;actions, NULL);</t>
+  </si>
+  <si>
+    <t>sUMyGameInstance = this;</t>
+  </si>
+  <si>
+    <t>WatchDogThread = new FWatchDog(pthread_self());</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::Init()"));</t>
+  </si>
+  <si>
+    <t>bool UMyGameInstance::Tick(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>void UMyGameInstance::Shutdown()</t>
+  </si>
+  <si>
+    <t>Super::Shutdown();</t>
+  </si>
+  <si>
+    <t>if (WatchDogThread)</t>
+  </si>
+  <si>
+    <t>WatchDogThread-&gt;Stop();</t>
+  </si>
+  <si>
+    <t>delete WatchDogThread;</t>
+  </si>
+  <si>
+    <t>WatchDogThread = nullptr;</t>
+  </si>
+  <si>
+    <t>if (TickDelegateHandle.IsValid())</t>
+  </si>
+  <si>
+    <t>FTicker::GetCoreTicker().RemoveTicker(TickDelegateHandle);</t>
+  </si>
+  <si>
+    <t>TickDelegateHandle.Reset();</t>
+  </si>
+  <si>
+    <t>if (ResumeHandle.IsValid())</t>
+  </si>
+  <si>
+    <t>FCoreDelegates::ApplicationHasEnteredForegroundDelegate.Remove(ResumeHandle);</t>
+  </si>
+  <si>
+    <t>ResumeHandle.Reset();</t>
+  </si>
+  <si>
+    <t>if (PauseHandle.IsValid())</t>
+  </si>
+  <si>
+    <t>FCoreDelegates::ApplicationWillEnterBackgroundDelegate.Remove(PauseHandle);</t>
+  </si>
+  <si>
+    <t>PauseHandle.Reset();</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::Shutdown()"));</t>
+  </si>
+  <si>
+    <t>void UMyGameInstance::FinishDestroy()</t>
+  </si>
+  <si>
+    <t>Super::FinishDestroy();</t>
+  </si>
+  <si>
+    <t>sUMyGameInstance = nullptr;</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::FinishDestroy()"));</t>
+  </si>
+  <si>
+    <t>void UMyGameInstance::HandlePreLoadMap(const FString&amp; MapName)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::HandlePreLoadMap()"));</t>
+  </si>
+  <si>
+    <t>InLoadMapState.Set(1);</t>
+  </si>
+  <si>
+    <t>void UMyGameInstance::HandlePostLoadMapWithWorld(UWorld* NewWorld)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::HandlePostLoadMapWithWorld()"));</t>
+  </si>
+  <si>
+    <t>InLoadMapState.Set(0);</t>
+  </si>
+  <si>
+    <t>void UMyGameInstance::HandleApplicationHasEnteredForeground()</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::HandleApplicationHasEnteredForeground()"));</t>
+  </si>
+  <si>
+    <t>InPauseState.Set(0);</t>
+  </si>
+  <si>
+    <t>void UMyGameInstance::HandleApplicationWillEnterBackground()</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::HandleApplicationWillEnterBackground()"));</t>
+  </si>
+  <si>
+    <t>InPauseState.Set(1);</t>
   </si>
 </sst>
 </file>
@@ -381,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -410,4 +883,1157 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4FDF86-141D-47AC-B34E-A875329DB74C}">
+  <dimension ref="B4:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8918BF-FAD5-42F5-B667-57DA685CD5AC}">
+  <dimension ref="B4:G228"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D168" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C177" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C179" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D181" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D182" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C183" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D187" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D188" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C191" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C198" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C199" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C204" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C205" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C206" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C211" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C212" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C213" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C218" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C219" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C220" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C225" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C226" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C227" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc5/ue-watchdog.xlsx
+++ b/doc5/ue-watchdog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDF4BFB-5F20-4813-8B59-779BAF8F969E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA6892F-8E2A-4C1C-B919-0B822DD68DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="199">
   <si>
     <t>UE开发出现死循环之类的时候，很难在真机上直接定位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,9 +218,6 @@
     <t>class FWatchDog : public FRunnable</t>
   </si>
   <si>
-    <t>/** Thread to run the worker FRunnable on. Serializes the ring buffer to disk. */</t>
-  </si>
-  <si>
     <t>volatile FRunnableThread* Thread;</t>
   </si>
   <si>
@@ -510,6 +507,126 @@
   </si>
   <si>
     <t>InPauseState.Set(1);</t>
+  </si>
+  <si>
+    <t>// Fill out your copyright notice in the Description page of Project Settings.</t>
+  </si>
+  <si>
+    <t>#include "MyGameInstance.h"</t>
+  </si>
+  <si>
+    <t>/** Thread to run the worker FRunnable on. */</t>
+  </si>
+  <si>
+    <t>/** Check Time After Start Time*/</t>
+  </si>
+  <si>
+    <t>int64 CheckTimeAfterStart = 30;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do </t>
+  </si>
+  <si>
+    <t>if (CurrentRealTime - sUMyGameInstance-&gt;StartTime &lt; CheckTimeAfterStart)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("FWatchDog::To Crash"));</t>
+  </si>
+  <si>
+    <t>// command</t>
+  </si>
+  <si>
+    <t>FString cmdFile = FPaths::ProjectPersistentDownloadDir() / TEXT("maincall.cmd");</t>
+  </si>
+  <si>
+    <t>IFileManager&amp; FileManager = IFileManager::Get();</t>
+  </si>
+  <si>
+    <t>if (FileManager.FileExists(*cmdFile))</t>
+  </si>
+  <si>
+    <t>FileManager.Delete(*cmdFile);</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("FWatchDog::Find maincall.cmd"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+  </si>
+  <si>
+    <t>while (false);</t>
+  </si>
+  <si>
+    <t>DeactivateHandle = FCoreDelegates::ApplicationWillDeactivateDelegate.AddUObject(this, &amp;UMyGameInstance::HandleApplicationWillDeactivate);</t>
+  </si>
+  <si>
+    <t>ReactivatedHandle = FCoreDelegates::ApplicationHasReactivatedDelegate.AddUObject(this, &amp;UMyGameInstance::HandleApplicationHasReactivated);</t>
+  </si>
+  <si>
+    <t>StartTime = (int64)FPlatformTime::Seconds();</t>
+  </si>
+  <si>
+    <t>if (DeactivateHandle.IsValid())</t>
+  </si>
+  <si>
+    <t>FCoreDelegates::ApplicationWillDeactivateDelegate.Remove(DeactivateHandle);</t>
+  </si>
+  <si>
+    <t>DeactivateHandle.Reset();</t>
+  </si>
+  <si>
+    <t>if (ReactivatedHandle.IsValid())</t>
+  </si>
+  <si>
+    <t>FCoreDelegates::ApplicationHasReactivatedDelegate.Remove(ReactivatedHandle);</t>
+  </si>
+  <si>
+    <t>ReactivatedHandle.Reset();</t>
+  </si>
+  <si>
+    <t>void UMyGameInstance::HandleApplicationHasReactivated()</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::HandleApplicationHasReactivated()"));</t>
+  </si>
+  <si>
+    <t>void UMyGameInstance::HandleApplicationWillDeactivate()</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::HandleApplicationWillDeactivate()"));</t>
+  </si>
+  <si>
+    <t>#pragma once</t>
+  </si>
+  <si>
+    <t>#include "CoreMinimal.h"</t>
+  </si>
+  <si>
+    <t>#include "Engine/GameInstance.h"</t>
+  </si>
+  <si>
+    <t>#include "MyGameInstance.generated.h"</t>
+  </si>
+  <si>
+    <t>FDelegateHandle DeactivateHandle;</t>
+  </si>
+  <si>
+    <t>FDelegateHandle ReactivatedHandle;</t>
+  </si>
+  <si>
+    <t>int64 StartTime = 0;</t>
+  </si>
+  <si>
+    <t>/** Callback for when an has been reactivated (i.e. return from sleep on iOS). */</t>
+  </si>
+  <si>
+    <t>void HandleApplicationHasReactivated();</t>
+  </si>
+  <si>
+    <t>/** Callback for when the application will be deactivated (i.e. sleep on iOS).*/</t>
+  </si>
+  <si>
+    <t>void HandleApplicationWillDeactivate();</t>
   </si>
 </sst>
 </file>
@@ -887,186 +1004,251 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4FDF86-141D-47AC-B34E-A875329DB74C}">
-  <dimension ref="B4:C45"/>
+  <dimension ref="A13:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1079,812 +1261,822 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8918BF-FAD5-42F5-B667-57DA685CD5AC}">
-  <dimension ref="B4:G228"/>
+  <dimension ref="A1:G282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G108" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E126" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F81" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G92" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F96" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F97" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="G99" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="G100" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="G101" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F102" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E103" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E105" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D106" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D107" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C108" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C109" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C110" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D111" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C116" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D118" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D119" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D121" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C122" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C127" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C129" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C130" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C131" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C132" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C133" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C135" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C136" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C137" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C140" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C142" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C143" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C144" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C145" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C146" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C147" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C149" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C150" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C153" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C158" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C159" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C164" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C166" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C167" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D168" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D169" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D170" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C171" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C173" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C174" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D175" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D176" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C177" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C179" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C180" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D181" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D182" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C183" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C185" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C186" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D187" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D188" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C189" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C191" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B192" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
@@ -1894,141 +2086,366 @@
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
-        <v>145</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C199" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B200" t="s">
-        <v>58</v>
+      <c r="B199" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B203" t="s">
-        <v>9</v>
+      <c r="C203" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C204" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C205" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C206" t="s">
-        <v>150</v>
+      <c r="B205" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>58</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B209" t="s">
-        <v>151</v>
+      <c r="C209" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B210" t="s">
-        <v>9</v>
+      <c r="C210" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C211" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C212" t="s">
-        <v>117</v>
+      <c r="B211" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C213" t="s">
-        <v>153</v>
+      <c r="B213" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>58</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C215" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B216" t="s">
-        <v>154</v>
+      <c r="C216" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C218" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C219" t="s">
-        <v>117</v>
+      <c r="B219" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C220" t="s">
-        <v>156</v>
+      <c r="B220" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B221" t="s">
-        <v>58</v>
+      <c r="C221" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C222" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C227" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C228" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B224" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C225" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B280" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B281" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C226" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C227" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B228" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
         <v>58</v>
       </c>
     </row>

--- a/doc5/ue-watchdog.xlsx
+++ b/doc5/ue-watchdog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA6892F-8E2A-4C1C-B919-0B822DD68DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D204EF7-1043-4D76-9D9C-916EA4C29F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="288">
   <si>
     <t>UE开发出现死循环之类的时候，很难在真机上直接定位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,9 +56,6 @@
     <t>UCLASS()</t>
   </si>
   <si>
-    <t>class UE4_TEST001_API UMyGameInstance : public UGameInstance</t>
-  </si>
-  <si>
     <t>{</t>
   </si>
   <si>
@@ -89,24 +86,12 @@
     <t>FWatchDog* WatchDogThread = nullptr;</t>
   </si>
   <si>
-    <t>/** virtual function to allow custom GameInstances an opportunity to set up what it needs */</t>
-  </si>
-  <si>
     <t>virtual void Init() override;</t>
   </si>
   <si>
-    <t>// tick</t>
-  </si>
-  <si>
     <t>virtual bool Tick(float DeltaSeconds);</t>
   </si>
   <si>
-    <t>/** virtual function to allow custom GameInstances an opportunity to do cleanup when shutting down */</t>
-  </si>
-  <si>
-    <t>virtual void Shutdown() override;</t>
-  </si>
-  <si>
     <t>virtual void FinishDestroy() override;</t>
   </si>
   <si>
@@ -170,18 +155,9 @@
     <t>#endif</t>
   </si>
   <si>
-    <t>static void PrintCallStack()</t>
-  </si>
-  <si>
-    <t>ANSICHAR* StackTrace;</t>
-  </si>
-  <si>
     <t>const SIZE_T StackTaceSize = 65535;</t>
   </si>
   <si>
-    <t>StackTrace = (ANSICHAR*)FMemory::Malloc(StackTaceSize);</t>
-  </si>
-  <si>
     <t>StackTrace[0] = 0;</t>
   </si>
   <si>
@@ -209,9 +185,6 @@
     <t>}</t>
   </si>
   <si>
-    <t>static UMyGameInstance* sUMyGameInstance = nullptr;</t>
-  </si>
-  <si>
     <t>// 看门狗</t>
   </si>
   <si>
@@ -281,21 +254,12 @@
     <t>while (StopTaskCounter.GetValue() == 0)</t>
   </si>
   <si>
-    <t>if (!sUMyGameInstance)</t>
-  </si>
-  <si>
     <t>break;</t>
   </si>
   <si>
-    <t>if (sUMyGameInstance-&gt;InLoadMapState.GetValue() == 0 &amp;&amp; sUMyGameInstance-&gt;InPauseState.GetValue() == 0)</t>
-  </si>
-  <si>
     <t>int64 CurrentRealTime = FPlatformTime::Seconds();</t>
   </si>
   <si>
-    <t>int64 LastTickTime = FPlatformAtomics::AtomicRead(&amp;sUMyGameInstance-&gt;LastTickTime);</t>
-  </si>
-  <si>
     <t>int64 diff = CurrentRealTime - LastTickTime;</t>
   </si>
   <si>
@@ -314,12 +278,6 @@
     <t>if (diff &gt;= MaxDiffTimeToCrash)</t>
   </si>
   <si>
-    <t>int* p[2] = { nullptr, nullptr };</t>
-  </si>
-  <si>
-    <t>*p[0] = 888;</t>
-  </si>
-  <si>
     <t>*p[1] = 999;</t>
   </si>
   <si>
@@ -347,39 +305,9 @@
     <t>UE_LOG(LogTemp, Log, TEXT("FWatchDog::MainThread OnMainThreadSignalHandler Begin"));</t>
   </si>
   <si>
-    <t>PrintCallStack();</t>
-  </si>
-  <si>
-    <t>void UMyGameInstance::Init()</t>
-  </si>
-  <si>
     <t>Super::Init();</t>
   </si>
   <si>
-    <t>TickDelegateHandle = FTicker::GetCoreTicker().AddTicker(FTickerDelegate::CreateUObject(this, &amp;UMyGameInstance::Tick));</t>
-  </si>
-  <si>
-    <t>ResumeHandle = FCoreDelegates::ApplicationHasEnteredForegroundDelegate.AddUObject(this, &amp;UMyGameInstance::HandleApplicationHasEnteredForeground);</t>
-  </si>
-  <si>
-    <t>PauseHandle = FCoreDelegates::ApplicationWillEnterBackgroundDelegate.AddUObject(this, &amp;UMyGameInstance::HandleApplicationWillEnterBackground);</t>
-  </si>
-  <si>
-    <t>FCoreUObjectDelegates::PreLoadMap.AddUObject(this, &amp;UMyGameInstance::HandlePreLoadMap);</t>
-  </si>
-  <si>
-    <t>FCoreUObjectDelegates::PostLoadMapWithWorld.AddUObject(this, &amp;UMyGameInstance::HandlePostLoadMapWithWorld);</t>
-  </si>
-  <si>
-    <t>//OnTravelFailure().AddUObject(this, &amp;UEngine::HandleTravelFailure);</t>
-  </si>
-  <si>
-    <t>//OnNetworkFailure().AddUObject(this, &amp;UEngine::HandleNetworkFailure);</t>
-  </si>
-  <si>
-    <t>//OnNetworkLagStateChanged().AddUObject(this, &amp;UEngine::HandleNetworkLagStateChanged);</t>
-  </si>
-  <si>
     <t>FPlatformAtomics::InterlockedExchange(&amp;LastTickTime, (int64)FPlatformTime::Seconds());</t>
   </si>
   <si>
@@ -401,24 +329,9 @@
     <t>sigaction(SIGALRM, &amp;actions, NULL);</t>
   </si>
   <si>
-    <t>sUMyGameInstance = this;</t>
-  </si>
-  <si>
     <t>WatchDogThread = new FWatchDog(pthread_self());</t>
   </si>
   <si>
-    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::Init()"));</t>
-  </si>
-  <si>
-    <t>bool UMyGameInstance::Tick(float DeltaSeconds)</t>
-  </si>
-  <si>
-    <t>void UMyGameInstance::Shutdown()</t>
-  </si>
-  <si>
-    <t>Super::Shutdown();</t>
-  </si>
-  <si>
     <t>if (WatchDogThread)</t>
   </si>
   <si>
@@ -458,63 +371,24 @@
     <t>PauseHandle.Reset();</t>
   </si>
   <si>
-    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::Shutdown()"));</t>
-  </si>
-  <si>
-    <t>void UMyGameInstance::FinishDestroy()</t>
-  </si>
-  <si>
     <t>Super::FinishDestroy();</t>
   </si>
   <si>
-    <t>sUMyGameInstance = nullptr;</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::FinishDestroy()"));</t>
-  </si>
-  <si>
-    <t>void UMyGameInstance::HandlePreLoadMap(const FString&amp; MapName)</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::HandlePreLoadMap()"));</t>
-  </si>
-  <si>
     <t>InLoadMapState.Set(1);</t>
   </si>
   <si>
-    <t>void UMyGameInstance::HandlePostLoadMapWithWorld(UWorld* NewWorld)</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::HandlePostLoadMapWithWorld()"));</t>
-  </si>
-  <si>
     <t>InLoadMapState.Set(0);</t>
   </si>
   <si>
-    <t>void UMyGameInstance::HandleApplicationHasEnteredForeground()</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::HandleApplicationHasEnteredForeground()"));</t>
-  </si>
-  <si>
     <t>InPauseState.Set(0);</t>
   </si>
   <si>
-    <t>void UMyGameInstance::HandleApplicationWillEnterBackground()</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::HandleApplicationWillEnterBackground()"));</t>
-  </si>
-  <si>
     <t>InPauseState.Set(1);</t>
   </si>
   <si>
     <t>// Fill out your copyright notice in the Description page of Project Settings.</t>
   </si>
   <si>
-    <t>#include "MyGameInstance.h"</t>
-  </si>
-  <si>
     <t>/** Thread to run the worker FRunnable on. */</t>
   </si>
   <si>
@@ -524,12 +398,6 @@
     <t>int64 CheckTimeAfterStart = 30;</t>
   </si>
   <si>
-    <t xml:space="preserve">do </t>
-  </si>
-  <si>
-    <t>if (CurrentRealTime - sUMyGameInstance-&gt;StartTime &lt; CheckTimeAfterStart)</t>
-  </si>
-  <si>
     <t>UE_LOG(LogTemp, Log, TEXT("FWatchDog::To Crash"));</t>
   </si>
   <si>
@@ -551,18 +419,9 @@
     <t>UE_LOG(LogTemp, Log, TEXT("FWatchDog::Find maincall.cmd"));</t>
   </si>
   <si>
-    <t xml:space="preserve">} </t>
-  </si>
-  <si>
     <t>while (false);</t>
   </si>
   <si>
-    <t>DeactivateHandle = FCoreDelegates::ApplicationWillDeactivateDelegate.AddUObject(this, &amp;UMyGameInstance::HandleApplicationWillDeactivate);</t>
-  </si>
-  <si>
-    <t>ReactivatedHandle = FCoreDelegates::ApplicationHasReactivatedDelegate.AddUObject(this, &amp;UMyGameInstance::HandleApplicationHasReactivated);</t>
-  </si>
-  <si>
     <t>StartTime = (int64)FPlatformTime::Seconds();</t>
   </si>
   <si>
@@ -584,18 +443,6 @@
     <t>ReactivatedHandle.Reset();</t>
   </si>
   <si>
-    <t>void UMyGameInstance::HandleApplicationHasReactivated()</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::HandleApplicationHasReactivated()"));</t>
-  </si>
-  <si>
-    <t>void UMyGameInstance::HandleApplicationWillDeactivate()</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogTemp, Log, TEXT("UMyGameInstance::HandleApplicationWillDeactivate()"));</t>
-  </si>
-  <si>
     <t>#pragma once</t>
   </si>
   <si>
@@ -605,9 +452,6 @@
     <t>#include "Engine/GameInstance.h"</t>
   </si>
   <si>
-    <t>#include "MyGameInstance.generated.h"</t>
-  </si>
-  <si>
     <t>FDelegateHandle DeactivateHandle;</t>
   </si>
   <si>
@@ -627,6 +471,429 @@
   </si>
   <si>
     <t>void HandleApplicationWillDeactivate();</t>
+  </si>
+  <si>
+    <t>#include "Debugging/SlateDebugging.h"</t>
+  </si>
+  <si>
+    <t>#include "Engine/LInputProcessor.h"</t>
+  </si>
+  <si>
+    <t>#include "LGameInstance.generated.h"</t>
+  </si>
+  <si>
+    <t>class UWorld;</t>
+  </si>
+  <si>
+    <t>class PROJECT_API ULGameInstance : public UGameInstance</t>
+  </si>
+  <si>
+    <t>FDelegateHandle HandleNetworkFailureDelegateHandle;</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;LInputProcessor&gt; InputProcessorPtr;</t>
+  </si>
+  <si>
+    <t>FDelegateHandle InputEventDelegate;</t>
+  </si>
+  <si>
+    <t>FThreadSafeCounter InWaitMovieFinishState;</t>
+  </si>
+  <si>
+    <t>// PAK加密算法</t>
+  </si>
+  <si>
+    <t>void InitEncrypt(uint8* Key);</t>
+  </si>
+  <si>
+    <t>// 初始化</t>
+  </si>
+  <si>
+    <t>// Tick更新</t>
+  </si>
+  <si>
+    <t>protected:</t>
+  </si>
+  <si>
+    <t>/** Called when the game instance is started either normally or through PIE. */</t>
+  </si>
+  <si>
+    <t>virtual void OnStart() override;</t>
+  </si>
+  <si>
+    <t>// 欲销毁</t>
+  </si>
+  <si>
+    <t>virtual void BeginDestroy() override;</t>
+  </si>
+  <si>
+    <t>// 真实销毁</t>
+  </si>
+  <si>
+    <t>// ConditionalBeginDestroy()-&gt;BeginDestroy()</t>
+  </si>
+  <si>
+    <t>// ConditionalFinishDestroy()-&gt;FinishDestroy()</t>
+  </si>
+  <si>
+    <t>void HandleMoviePlaybackFinished();</t>
+  </si>
+  <si>
+    <t>void HandleInputEvent(const FSlateDebuggingInputEventArgs&amp; EventArgs) const;</t>
+  </si>
+  <si>
+    <t>// DS登录失败事件回调</t>
+  </si>
+  <si>
+    <t>virtual void OnLoginDSFailedHandler(UWorld* InWorld, UNetDriver* InNetDriver, ENetworkFailure::Type FailureType, const FString&amp; ErrorString);</t>
+  </si>
+  <si>
+    <t>#include "GameInstance/LGameInstance.h"</t>
+  </si>
+  <si>
+    <t>#include "Engine/World.h"</t>
+  </si>
+  <si>
+    <t>#include "Types/ReflectionMetadata.h"</t>
+  </si>
+  <si>
+    <t>#include "Types/NavigationMetaData.h"</t>
+  </si>
+  <si>
+    <t>#include "Kismet/KismetStringLibrary.h"</t>
+  </si>
+  <si>
+    <t>#include "MoviePlayer.h"</t>
+  </si>
+  <si>
+    <t>static ULGameInstance* sULGameInstance = nullptr;</t>
+  </si>
+  <si>
+    <t>if (!sULGameInstance)</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>if (CurrentRealTime - sULGameInstance-&gt;StartTime &lt; CheckTimeAfterStart)</t>
+  </si>
+  <si>
+    <t>if (sULGameInstance-&gt;InLoadMapState.GetValue() == 0 &amp;&amp; sULGameInstance-&gt;InPauseState.GetValue() == 0 &amp;&amp; sULGameInstance-&gt;InWaitMovieFinishState.GetValue()==0)</t>
+  </si>
+  <si>
+    <t>{// 跳过LoadMap，切到后台和等待MoviePlayer Finish</t>
+  </si>
+  <si>
+    <t>int64 LastTickTime = FPlatformAtomics::AtomicRead(&amp;sULGameInstance-&gt;LastTickTime);</t>
+  </si>
+  <si>
+    <t>int* p[3] = { nullptr, nullptr, nullptr };</t>
+  </si>
+  <si>
+    <t>*p[0] = 777;</t>
+  </si>
+  <si>
+    <t>*p[1] = 888;</t>
+  </si>
+  <si>
+    <t>*p[2] = 999;</t>
+  </si>
+  <si>
+    <t>else if (sULGameInstance-&gt;InPauseState.GetValue() == 0)</t>
+  </si>
+  <si>
+    <t>if (sULGameInstance-&gt;InLoadMapState.GetValue() == 1)</t>
+  </si>
+  <si>
+    <t>{// 切换场景中，看看过了多久了，主要怕本地一些对象的BeginPlay会进行逻辑处理</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>else if (sULGameInstance-&gt;InWaitMovieFinishState.GetValue() == 1)</t>
+  </si>
+  <si>
+    <t>{// 死等Movie Player Finish，如果配置了FLoadingScreenAttributes::bAllowEngineTick，就会进行Engine-World的Tick</t>
+  </si>
+  <si>
+    <t>cmdFile = FPaths::ProjectPersistentDownloadDir() / TEXT("crash.cmd");</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("FWatchDog::Find crash.cmd"));</t>
+  </si>
+  <si>
+    <t>ANSICHAR* StackTrace = (ANSICHAR*)FMemory::Malloc(StackTaceSize);</t>
+  </si>
+  <si>
+    <t>FMemory::Free(StackTrace);</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::InitEncrypt(uint8* Key)</t>
+  </si>
+  <si>
+    <t>FString KeyStr = TEXT("kDIta832HPHzaP+M8bDKrTGxnlU8QGYcEAWN5AAiLYI=");</t>
+  </si>
+  <si>
+    <t>TArray&lt;uint8&gt; KeyBase64Ary;</t>
+  </si>
+  <si>
+    <t>FBase64::Decode(KeyStr, KeyBase64Ary);</t>
+  </si>
+  <si>
+    <t>char* KeyU8 = TCHAR_TO_UTF8(*KeyStr);</t>
+  </si>
+  <si>
+    <t>FMemory::Memcpy(Key, KeyBase64Ary.GetData(), FAES::FAESKey::KeySize);</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::Init()</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::Init()"));</t>
+  </si>
+  <si>
+    <t>FCoreDelegates::GetPakEncryptionKeyDelegate().BindUObject(this, &amp;ULGameInstance::InitEncrypt);</t>
+  </si>
+  <si>
+    <t>HandleNetworkFailureDelegateHandle = GEngine-&gt;OnNetworkFailure().AddUObject(this, &amp;ULGameInstance::OnLoginDSFailedHandler);</t>
+  </si>
+  <si>
+    <t>TickDelegateHandle = FTicker::GetCoreTicker().AddTicker(FTickerDelegate::CreateUObject(this, &amp;ULGameInstance::Tick));</t>
+  </si>
+  <si>
+    <t>DeactivateHandle = FCoreDelegates::ApplicationWillDeactivateDelegate.AddUObject(this, &amp;ULGameInstance::HandleApplicationWillDeactivate);</t>
+  </si>
+  <si>
+    <t>ReactivatedHandle = FCoreDelegates::ApplicationHasReactivatedDelegate.AddUObject(this, &amp;ULGameInstance::HandleApplicationHasReactivated);</t>
+  </si>
+  <si>
+    <t>ResumeHandle = FCoreDelegates::ApplicationHasEnteredForegroundDelegate.AddUObject(this, &amp;ULGameInstance::HandleApplicationHasEnteredForeground);</t>
+  </si>
+  <si>
+    <t>PauseHandle = FCoreDelegates::ApplicationWillEnterBackgroundDelegate.AddUObject(this, &amp;ULGameInstance::HandleApplicationWillEnterBackground);</t>
+  </si>
+  <si>
+    <t>FCoreUObjectDelegates::PreLoadMap.AddUObject(this, &amp;ULGameInstance::HandlePreLoadMap);</t>
+  </si>
+  <si>
+    <t>FCoreUObjectDelegates::PostLoadMapWithWorld.AddUObject(this, &amp;ULGameInstance::HandlePostLoadMapWithWorld);</t>
+  </si>
+  <si>
+    <t>GetMoviePlayer()-&gt;OnMoviePlaybackFinished().AddUObject(this, &amp;ULGameInstance::HandleMoviePlaybackFinished);</t>
+  </si>
+  <si>
+    <t>#if WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>#if WITH_SLATE_DEBUGGING</t>
+  </si>
+  <si>
+    <t>if (GIsClient)</t>
+  </si>
+  <si>
+    <t>InputProcessorPtr = MakeShareable(new LInputProcessor());</t>
+  </si>
+  <si>
+    <t>if (FSlateApplication::IsInitialized())</t>
+  </si>
+  <si>
+    <t>FSlateApplication::Get().RegisterInputPreProcessor(InputProcessorPtr, 0);</t>
+  </si>
+  <si>
+    <t>// 该事件仅在WITH_SLATE_DEBUGGING模式下生效，所以我们也尽在WITH_SLATE_DEBUGGING模式下注册</t>
+  </si>
+  <si>
+    <t>InputEventDelegate = FSlateDebugging::InputEvent.AddUObject(this, &amp;ULGameInstance::HandleInputEvent);</t>
+  </si>
+  <si>
+    <t>int32 WatchDogEnable = 0;</t>
+  </si>
+  <si>
+    <t>GConfig-&gt;GetInt(</t>
+  </si>
+  <si>
+    <t>TEXT("Config"),</t>
+  </si>
+  <si>
+    <t>TEXT("WatchDogEnable"),</t>
+  </si>
+  <si>
+    <t>WatchDogEnable,</t>
+  </si>
+  <si>
+    <t>GEngineIni</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>if (WatchDogEnable == 1)</t>
+  </si>
+  <si>
+    <t>sULGameInstance = this;</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::OnStart()</t>
+  </si>
+  <si>
+    <t>Super::OnStart();</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::OnStart()"));</t>
+  </si>
+  <si>
+    <t>bool ULGameInstance::Tick(float DeltaSeconds)</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::BeginDestroy()</t>
+  </si>
+  <si>
+    <t>Super::BeginDestroy();</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::BeginDestroy()"));</t>
+  </si>
+  <si>
+    <t>if (HandleNetworkFailureDelegateHandle.IsValid())</t>
+  </si>
+  <si>
+    <t>GEngine-&gt;OnNetworkFailure().Remove(HandleNetworkFailureDelegateHandle);</t>
+  </si>
+  <si>
+    <t>HandleNetworkFailureDelegateHandle.Reset();</t>
+  </si>
+  <si>
+    <t>if (InputEventDelegate.IsValid())</t>
+  </si>
+  <si>
+    <t>FSlateDebugging::InputEvent.Remove(InputEventDelegate);</t>
+  </si>
+  <si>
+    <t>InputEventDelegate.Reset();</t>
+  </si>
+  <si>
+    <t>if (InputProcessorPtr.IsValid())</t>
+  </si>
+  <si>
+    <t>FSlateApplication::Get().RegisterInputPreProcessor(InputProcessorPtr);</t>
+  </si>
+  <si>
+    <t>InputProcessorPtr.Reset();</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::FinishDestroy()</t>
+  </si>
+  <si>
+    <t>sULGameInstance = nullptr;</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::FinishDestroy()"));</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::HandlePreLoadMap(const FString&amp; MapName)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::HandlePreLoadMap()"));</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::HandlePostLoadMapWithWorld(UWorld* NewWorld)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::HandlePostLoadMapWithWorld()"));</t>
+  </si>
+  <si>
+    <t>// 切换完场景后，可以判断一下是否还在播放过场视频，如果是，说明下来还是要等待的</t>
+  </si>
+  <si>
+    <t>if (GetMoviePlayer()-&gt;LoadingScreenIsPrepared() &amp;&amp; GetMoviePlayer()-&gt;IsMovieCurrentlyPlaying())</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::HandlePostLoadMapWithWorld(Wait Movie Player Finish)"));</t>
+  </si>
+  <si>
+    <t>InWaitMovieFinishState.Set(1);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>InWaitMovieFinishState.Set(0);</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::HandleMoviePlaybackFinished()</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::HandleMoviePlaybackFinished()"));</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::HandleApplicationHasReactivated()</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::HandleApplicationHasReactivated()"));</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::HandleApplicationWillDeactivate()</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::HandleApplicationWillDeactivate()"));</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::HandleApplicationHasEnteredForeground()</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::HandleApplicationHasEnteredForeground()"));</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::HandleApplicationWillEnterBackground()</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::HandleApplicationWillEnterBackground()"));</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::HandleInputEvent(const FSlateDebuggingInputEventArgs&amp; EventArgs) const</t>
+  </si>
+  <si>
+    <t>if (!InputProcessorPtr.IsValid())</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>if (!InputProcessorPtr-&gt;IsMouseButtonDown)</t>
+  </si>
+  <si>
+    <t>if (!EventArgs.HandlerWidget.IsValid())</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::HandleInputEvent Invalid"));</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FNavigationMetaData&gt; MetaData = EventArgs.HandlerWidget-&gt;GetMetaData&lt;FNavigationMetaData&gt;();</t>
+  </si>
+  <si>
+    <t>if (MetaData.IsValid())</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::HandleInputEvent FNavigationMetaData"));</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FReflectionMetaData&gt; MetaData = EventArgs.HandlerWidget-&gt;GetMetaData&lt;FReflectionMetaData&gt;();</t>
+  </si>
+  <si>
+    <t>if (!MetaData.IsValid())</t>
+  </si>
+  <si>
+    <t>if (MetaData-&gt;Asset.IsValid())</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::HandleInputEvent FReflectionMetaData, UMG Name=%s, UMG Asset=%s"), *(MetaData-&gt;Name.ToString()), *(MetaData-&gt;Asset-&gt;GetFName().ToString()));</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("ULGameInstance::HandleInputEvent FReflectionMetaData, UMG Name=%s, Unkown UMG Asset"), *(MetaData-&gt;Name.ToString()));</t>
+  </si>
+  <si>
+    <t>void ULGameInstance::OnLoginDSFailedHandler(UWorld* InWorld, UNetDriver* InNetDriver, ENetworkFailure::Type FailureType, const FString&amp; ErrorString)</t>
   </si>
 </sst>
 </file>
@@ -1004,252 +1271,382 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4FDF86-141D-47AC-B34E-A875329DB74C}">
-  <dimension ref="A13:B70"/>
+  <dimension ref="A12:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>10</v>
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>193</v>
+      <c r="A34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>14</v>
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>11</v>
+      <c r="B38" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>17</v>
+      <c r="A42" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>26</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>27</v>
+      <c r="A57" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>28</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>26</v>
+      <c r="B60" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>197</v>
+      <c r="A63" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>29</v>
+      <c r="B65" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>30</v>
+      <c r="A67" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>33</v>
+      <c r="B70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1261,1192 +1658,1852 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8918BF-FAD5-42F5-B667-57DA685CD5AC}">
-  <dimension ref="A1:G282"/>
+  <dimension ref="A1:G422"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>47</v>
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>48</v>
+      <c r="A29" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>57</v>
+      <c r="B39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>58</v>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>60</v>
+      <c r="B43" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>9</v>
+      <c r="B46" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D87" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E90" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F91" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E93" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F95" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F96" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F97" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G99" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G100" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G102" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F104" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F105" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G107" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G108" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G109" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G110" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F111" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E112" t="s">
-        <v>58</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E114" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E115" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E116" t="s">
-        <v>169</v>
+      <c r="F115" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E117" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E118" t="s">
-        <v>9</v>
+      <c r="F117" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F119" t="s">
-        <v>171</v>
+      <c r="A119" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F121" t="s">
-        <v>172</v>
+      <c r="A121" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>36</v>
+      <c r="E123" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F124" t="s">
-        <v>92</v>
+      <c r="E124" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>45</v>
+      <c r="E125" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E126" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D127" t="s">
-        <v>173</v>
+      <c r="F126" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D128" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D130" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C131" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C132" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C136" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E134" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C143" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C146" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
-        <v>58</v>
+      <c r="B146" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>106</v>
+      <c r="B150" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>9</v>
+      <c r="C151" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>107</v>
+      <c r="C152" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
-        <v>108</v>
+      <c r="C154" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B155" t="s">
-        <v>175</v>
+      <c r="C155" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
-        <v>176</v>
+      <c r="C156" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
-        <v>109</v>
+      <c r="C157" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
-        <v>110</v>
+      <c r="C158" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
-        <v>111</v>
+      <c r="C159" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B171" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>122</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B177" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B178" t="s">
-        <v>124</v>
+      <c r="A177" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>45</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>58</v>
+      <c r="B182" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>126</v>
+      <c r="B184" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>9</v>
+      <c r="B185" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>58</v>
+      <c r="B188" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>127</v>
+      <c r="B190" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>9</v>
+      <c r="B191" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B194" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B195" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C196" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C200" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C201" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D203" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C204" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C205" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C206" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C213" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C214" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C215" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C216" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C220" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C197" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C198" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B199" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B201" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B202" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C203" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C204" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B205" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B207" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B208" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C209" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C210" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B211" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B213" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B214" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C215" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C216" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B217" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B219" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B220" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C221" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C222" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B223" t="s">
-        <v>58</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C223" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C224" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B225" t="s">
-        <v>139</v>
+      <c r="C225" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B226" t="s">
-        <v>9</v>
+      <c r="C226" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C227" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C228" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B229" t="s">
-        <v>58</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C230" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B231" t="s">
-        <v>142</v>
+      <c r="C231" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B236" t="s">
-        <v>144</v>
+      <c r="A236" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C255" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C256" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C257" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C262" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C263" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C268" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C269" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C274" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C275" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C280" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C281" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B284" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C286" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C287" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B288" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C292" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C293" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B297" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C299" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C300" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C304" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D305" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C306" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B313" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C335" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C336" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B338" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C339" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B344" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B246" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B251" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B252" t="s">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B357" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B358" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B359" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B364" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B365" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B366" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B253" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B258" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B259" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B260" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B265" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B266" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B267" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B272" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B273" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B274" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B279" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B280" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B281" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>58</v>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B371" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B372" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B373" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B379" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B380" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C381" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B382" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B383" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B384" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C385" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B386" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B388" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B389" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C390" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C391" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B392" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B394" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C395" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C396" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C397" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D398" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D399" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C400" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B401" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B403" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B404" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B405" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C406" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B407" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B409" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B410" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C411" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B412" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B413" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B414" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C415" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B416" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/doc5/ue-watchdog.xlsx
+++ b/doc5/ue-watchdog.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D204EF7-1043-4D76-9D9C-916EA4C29F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0143A83-3ED8-487A-90B2-F803D34DF5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="简介" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="289">
   <si>
     <t>UE开发出现死循环之类的时候，很难在真机上直接定位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -894,6 +894,10 @@
   </si>
   <si>
     <t>void ULGameInstance::OnLoginDSFailedHandler(UWorld* InWorld, UNetDriver* InNetDriver, ENetworkFailure::Type FailureType, const FString&amp; ErrorString)</t>
+  </si>
+  <si>
+    <t>！！！不同于UE自带的FThreadHeartBeat机制，自由度更高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1236,20 +1240,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:C10"/>
+  <dimension ref="B4:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="K4" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1257,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1660,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8918BF-FAD5-42F5-B667-57DA685CD5AC}">
   <dimension ref="A1:G422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
